--- a/CryptoReport.xlsx
+++ b/CryptoReport.xlsx
@@ -487,15 +487,15 @@
         </is>
       </c>
       <c r="D2" s="3" t="n">
-        <v>28334</v>
+        <v>28893</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>-0.37%</t>
+          <t>2.24%</t>
         </is>
       </c>
       <c r="F2" s="3" t="n">
-        <v>17850.42</v>
+        <v>93613.32000000001</v>
       </c>
     </row>
     <row r="3">
@@ -515,15 +515,15 @@
         </is>
       </c>
       <c r="D3" s="3" t="n">
-        <v>1849</v>
+        <v>1888</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0.39%</t>
+          <t>2.09%</t>
         </is>
       </c>
       <c r="F3" s="3" t="n">
-        <v>2570.11</v>
+        <v>5833.92</v>
       </c>
     </row>
     <row r="4">
@@ -547,11 +547,11 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>-0.1%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="F4" s="3" t="n">
-        <v>0.9</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="5">
@@ -571,15 +571,15 @@
         </is>
       </c>
       <c r="D5" s="3" t="n">
-        <v>324.23</v>
+        <v>324.66</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>-2.78%</t>
+          <t>0.67%</t>
         </is>
       </c>
       <c r="F5" s="3" t="n">
-        <v>-577.1293999999999</v>
+        <v>542.1822</v>
       </c>
     </row>
     <row r="6">
@@ -599,15 +599,15 @@
         </is>
       </c>
       <c r="D6" s="3" t="n">
-        <v>0.9998713</v>
+        <v>0.9997206</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>0.02%</t>
+          <t>0.0%</t>
         </is>
       </c>
       <c r="F6" s="3" t="n">
-        <v>1.019868726</v>
+        <v>0.9997206</v>
       </c>
     </row>
   </sheetData>
